--- a/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
+++ b/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16230" windowHeight="6180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
-    <sheet name="Weight" sheetId="9" r:id="rId2"/>
-    <sheet name="Treatment" sheetId="6" r:id="rId3"/>
-    <sheet name="Deworming" sheetId="7" r:id="rId4"/>
-    <sheet name="Vaccination" sheetId="8" r:id="rId5"/>
-    <sheet name="Heat" sheetId="2" r:id="rId6"/>
-    <sheet name="Insemination" sheetId="3" r:id="rId7"/>
-    <sheet name="PD" sheetId="4" r:id="rId8"/>
+    <sheet name="RegisterHeifer" sheetId="10" r:id="rId2"/>
+    <sheet name="Weight" sheetId="9" r:id="rId3"/>
+    <sheet name="Treatment" sheetId="6" r:id="rId4"/>
+    <sheet name="Deworming" sheetId="7" r:id="rId5"/>
+    <sheet name="Vaccination" sheetId="8" r:id="rId6"/>
+    <sheet name="Heat" sheetId="2" r:id="rId7"/>
+    <sheet name="Insemination" sheetId="3" r:id="rId8"/>
     <sheet name="Calving" sheetId="5" r:id="rId9"/>
-    <sheet name="RegisterMilkingorDryCattle" sheetId="10" r:id="rId10"/>
-    <sheet name="ForgotPin" sheetId="11" r:id="rId11"/>
+    <sheet name="PD" sheetId="4" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="212">
   <si>
     <t>testcase</t>
   </si>
@@ -91,9 +91,6 @@
     <t>isCattleInseminated</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>2456</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>Rathi</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>motheredBy</t>
   </si>
   <si>
-    <t>RegisterCattle_Heifer</t>
-  </si>
-  <si>
     <t>Hariana</t>
   </si>
   <si>
@@ -556,43 +547,106 @@
     <t>Direct Weight</t>
   </si>
   <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>11 Dec 2021</t>
+  </si>
+  <si>
+    <t>Weight_ViewData</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>Weight_ViewData1</t>
+  </si>
+  <si>
+    <t>FMD</t>
+  </si>
+  <si>
+    <t>Weight_DeleteData</t>
+  </si>
+  <si>
+    <t>Weight_EditData</t>
+  </si>
+  <si>
+    <t>tagNumber</t>
+  </si>
+  <si>
+    <t>123.23@@23</t>
+  </si>
+  <si>
+    <t>1234567891234</t>
+  </si>
+  <si>
+    <t>cooptagNumber</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
     <t>RegisterCattle_HeiferCattle</t>
   </si>
   <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>11 Dec 2021</t>
-  </si>
-  <si>
-    <t>Weight_ViewData</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>Weight_ViewData1</t>
-  </si>
-  <si>
-    <t>FMD</t>
-  </si>
-  <si>
-    <t>Weight_DeleteData</t>
-  </si>
-  <si>
-    <t>Weight_EditData</t>
-  </si>
-  <si>
-    <t>tagNumber</t>
+    <t>1234567891..</t>
+  </si>
+  <si>
+    <t>FEBRUARY</t>
+  </si>
+  <si>
+    <t>16 Nov 2021</t>
+  </si>
+  <si>
+    <t>3457</t>
+  </si>
+  <si>
+    <t>MARCH</t>
+  </si>
+  <si>
+    <t>17 Nov 2021</t>
+  </si>
+  <si>
+    <t>3458</t>
+  </si>
+  <si>
+    <t>1 May 2022</t>
+  </si>
+  <si>
+    <t>15 April 2022</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_CheckSameTag</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_PALess</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_PAGreat</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_BirthYear</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_InseminationDate</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_InseminationDateCheck</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_HeatEntry</t>
   </si>
   <si>
     <t>warningMessage</t>
   </si>
   <si>
-    <t>Cow@123</t>
+    <t>RegisterHeifer_TagSpecialCharacter</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_CoopNonNumeric</t>
   </si>
   <si>
     <t>Name/Number should be only Alphabets or Numbers.</t>
@@ -601,95 +655,32 @@
     <t>Pashu Aadhar should be only Numeric.Please check and re-enter Pashu Aadhar.</t>
   </si>
   <si>
-    <t>cattle</t>
-  </si>
-  <si>
-    <t>coopTagNumber</t>
-  </si>
-  <si>
-    <t>123456789abc</t>
-  </si>
-  <si>
     <t>Pashu Aadhar is not valid. Please check and re-enter valid 12-digit Pashu Aadhar Number.</t>
   </si>
   <si>
+    <t>RegisterHeifer_TagMandate</t>
+  </si>
+  <si>
     <t>Cattle Name/Number must be between 1-10 characters.</t>
   </si>
   <si>
-    <t>The field Calving Date cannot be empty</t>
-  </si>
-  <si>
-    <t>The field Insemination Date cannot be empty</t>
+    <t>The field Year of  Birth cannot be empty</t>
   </si>
   <si>
     <t>Cattle with entered Name/Number exists. Please enter valid Name/Number.</t>
   </si>
   <si>
-    <t>The field Dry period Date cannot be empty</t>
-  </si>
-  <si>
-    <t>Insemination Date cannot be within 15 days after last Calving Date</t>
-  </si>
-  <si>
-    <t>Dry Period Date cannot be before Last Calving Date.</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_TagnumberAcceptsSpecialChars</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_CoopTagnumberAcceptsNonnumericChars</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_CoopTagnumberAcceptsLessDigits</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_CoopTagnumberAcceptsMoreDigits</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_TagnumberMandate</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_CalvingDateMandate</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_InseminationDateMandate</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_DuplicateTagnumberAllowed</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_DryPeriodDateMandate</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_CalvingAndInseminationDateGap</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_DryPeriodDateCannotBeBeforeCalvingDate</t>
-  </si>
-  <si>
-    <t>ForgotPin_PinLessThanSixDigitsNotAccepted</t>
-  </si>
-  <si>
-    <t>ForgotPin_PinAndConfirmPinMustMatch</t>
-  </si>
-  <si>
-    <t>Your PIN and Re-entered PIN do not match</t>
-  </si>
-  <si>
-    <t>Please create valid PIN of 6 digits</t>
-  </si>
-  <si>
-    <t>PIN entered already exists. Please create a new PIN.</t>
-  </si>
-  <si>
-    <t>ForgotPin_CannotSetOldPin</t>
+    <t>RegisterHeifer_VerifyBreedingActivity</t>
+  </si>
+  <si>
+    <t>15 Nov 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,6 +714,14 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -732,7 +731,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -766,11 +765,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -780,13 +819,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -845,7 +907,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -897,7 +959,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1091,7 +1153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1099,106 +1161,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33" style="20"/>
+    <col min="10" max="10" width="33" style="20"/>
+    <col min="17" max="17" width="33" style="20"/>
+    <col min="25" max="25" width="33" style="20"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
@@ -1207,25 +1283,25 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1234,48 +1310,50 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -1284,93 +1362,97 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="V4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1378,7 +1460,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="2"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -1386,25 +1468,27 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>13</v>
@@ -1412,7 +1496,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1420,7 +1504,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="2"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1428,31 +1512,33 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1460,7 +1546,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="2"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1468,31 +1554,33 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1500,29 +1588,94 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="W8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="Y9" s="20"/>
+    </row>
+    <row r="10" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="Y10" s="20"/>
+    </row>
+    <row r="11" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="Y11" s="20"/>
+    </row>
+    <row r="12" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="Y12" s="20"/>
+    </row>
+    <row r="13" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="Y13" s="20"/>
+    </row>
+    <row r="14" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="Y14" s="20"/>
+    </row>
+    <row r="15" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="Y15" s="20"/>
+    </row>
+    <row r="16" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="Y16" s="20"/>
+    </row>
+    <row r="17" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="Y17" s="20"/>
+    </row>
+    <row r="18" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="Y18" s="20"/>
+    </row>
+    <row r="19" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="Y19" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1533,192 +1686,86 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" t="s">
-        <v>213</v>
-      </c>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1727,10 +1774,772 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.42578125" customWidth="1"/>
+    <col min="26" max="26" width="33.42578125" customWidth="1"/>
+    <col min="27" max="27" width="70" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2">
+        <v>6266251</v>
+      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+    </row>
+    <row r="10" spans="1:30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+    </row>
+    <row r="11" spans="1:30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Y2" r:id="rId1" display="123.23@23"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,128 +2551,128 @@
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1871,7 +2680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -1893,121 +2702,121 @@
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="B2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="D2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
         <v>123</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2015,7 +2824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2029,62 +2838,62 @@
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>134</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2094,11 +2903,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2110,77 +2919,77 @@
     <col min="4" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>143</v>
       </c>
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2190,7 +2999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -2205,89 +3014,89 @@
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2297,7 +3106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -2314,132 +3123,132 @@
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2449,99 +3258,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2552,122 +3275,122 @@
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>

--- a/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
+++ b/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16230" windowHeight="6180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15585" windowHeight="4065" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
-    <sheet name="RegisterHeifer" sheetId="10" r:id="rId2"/>
-    <sheet name="Weight" sheetId="9" r:id="rId3"/>
-    <sheet name="Treatment" sheetId="6" r:id="rId4"/>
-    <sheet name="Deworming" sheetId="7" r:id="rId5"/>
-    <sheet name="Vaccination" sheetId="8" r:id="rId6"/>
-    <sheet name="Heat" sheetId="2" r:id="rId7"/>
-    <sheet name="Insemination" sheetId="3" r:id="rId8"/>
+    <sheet name="Weight" sheetId="9" r:id="rId2"/>
+    <sheet name="Treatment" sheetId="6" r:id="rId3"/>
+    <sheet name="Deworming" sheetId="7" r:id="rId4"/>
+    <sheet name="Vaccination" sheetId="8" r:id="rId5"/>
+    <sheet name="Heat" sheetId="2" r:id="rId6"/>
+    <sheet name="Insemination" sheetId="3" r:id="rId7"/>
+    <sheet name="PD" sheetId="4" r:id="rId8"/>
     <sheet name="Calving" sheetId="5" r:id="rId9"/>
-    <sheet name="PD" sheetId="4" r:id="rId10"/>
+    <sheet name="RegisterMilkingorDryCattle" sheetId="10" r:id="rId10"/>
+    <sheet name="ForgotPin" sheetId="11" r:id="rId11"/>
+    <sheet name="CreateUserdefinedshed" sheetId="13" r:id="rId12"/>
+    <sheet name="AddCattletoUserdefinedShed" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="229">
   <si>
     <t>testcase</t>
   </si>
@@ -91,6 +93,9 @@
     <t>isCattleInseminated</t>
   </si>
   <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -118,6 +123,9 @@
     <t>2456</t>
   </si>
   <si>
+    <t>2018</t>
+  </si>
+  <si>
     <t>Rathi</t>
   </si>
   <si>
@@ -193,6 +201,9 @@
     <t>motheredBy</t>
   </si>
   <si>
+    <t>RegisterCattle_Heifer</t>
+  </si>
+  <si>
     <t>Hariana</t>
   </si>
   <si>
@@ -547,6 +558,9 @@
     <t>Direct Weight</t>
   </si>
   <si>
+    <t>RegisterCattle_HeiferCattle</t>
+  </si>
+  <si>
     <t>215</t>
   </si>
   <si>
@@ -577,76 +591,10 @@
     <t>tagNumber</t>
   </si>
   <si>
-    <t>123.23@@23</t>
-  </si>
-  <si>
-    <t>1234567891234</t>
-  </si>
-  <si>
-    <t>cooptagNumber</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>RegisterCattle_HeiferCattle</t>
-  </si>
-  <si>
-    <t>1234567891..</t>
-  </si>
-  <si>
-    <t>FEBRUARY</t>
-  </si>
-  <si>
-    <t>16 Nov 2021</t>
-  </si>
-  <si>
-    <t>3457</t>
-  </si>
-  <si>
-    <t>MARCH</t>
-  </si>
-  <si>
-    <t>17 Nov 2021</t>
-  </si>
-  <si>
-    <t>3458</t>
-  </si>
-  <si>
-    <t>1 May 2022</t>
-  </si>
-  <si>
-    <t>15 April 2022</t>
-  </si>
-  <si>
-    <t>RegisterHeifer_CheckSameTag</t>
-  </si>
-  <si>
-    <t>RegisterHeifer_PALess</t>
-  </si>
-  <si>
-    <t>RegisterHeifer_PAGreat</t>
-  </si>
-  <si>
-    <t>RegisterHeifer_BirthYear</t>
-  </si>
-  <si>
-    <t>RegisterHeifer_InseminationDate</t>
-  </si>
-  <si>
-    <t>RegisterHeifer_InseminationDateCheck</t>
-  </si>
-  <si>
-    <t>RegisterHeifer_HeatEntry</t>
-  </si>
-  <si>
     <t>warningMessage</t>
   </si>
   <si>
-    <t>RegisterHeifer_TagSpecialCharacter</t>
-  </si>
-  <si>
-    <t>RegisterHeifer_CoopNonNumeric</t>
+    <t>Cow@123</t>
   </si>
   <si>
     <t>Name/Number should be only Alphabets or Numbers.</t>
@@ -655,32 +603,137 @@
     <t>Pashu Aadhar should be only Numeric.Please check and re-enter Pashu Aadhar.</t>
   </si>
   <si>
+    <t>cattle</t>
+  </si>
+  <si>
+    <t>coopTagNumber</t>
+  </si>
+  <si>
+    <t>123456789abc</t>
+  </si>
+  <si>
     <t>Pashu Aadhar is not valid. Please check and re-enter valid 12-digit Pashu Aadhar Number.</t>
   </si>
   <si>
-    <t>RegisterHeifer_TagMandate</t>
-  </si>
-  <si>
     <t>Cattle Name/Number must be between 1-10 characters.</t>
   </si>
   <si>
-    <t>The field Year of  Birth cannot be empty</t>
+    <t>The field Calving Date cannot be empty</t>
+  </si>
+  <si>
+    <t>The field Insemination Date cannot be empty</t>
   </si>
   <si>
     <t>Cattle with entered Name/Number exists. Please enter valid Name/Number.</t>
   </si>
   <si>
-    <t>RegisterHeifer_VerifyBreedingActivity</t>
-  </si>
-  <si>
-    <t>15 Nov 2022</t>
+    <t>The field Dry period Date cannot be empty</t>
+  </si>
+  <si>
+    <t>Insemination Date cannot be within 15 days after last Calving Date</t>
+  </si>
+  <si>
+    <t>Dry Period Date cannot be before Last Calving Date.</t>
+  </si>
+  <si>
+    <t>RegisterMilkingorDryCattle_TagnumberAcceptsSpecialChars</t>
+  </si>
+  <si>
+    <t>RegisterMilkingorDryCattle_CoopTagnumberAcceptsNonnumericChars</t>
+  </si>
+  <si>
+    <t>RegisterMilkingorDryCattle_CoopTagnumberAcceptsLessDigits</t>
+  </si>
+  <si>
+    <t>RegisterMilkingorDryCattle_CoopTagnumberAcceptsMoreDigits</t>
+  </si>
+  <si>
+    <t>RegisterMilkingorDryCattle_TagnumberMandate</t>
+  </si>
+  <si>
+    <t>RegisterMilkingorDryCattle_CalvingDateMandate</t>
+  </si>
+  <si>
+    <t>RegisterMilkingorDryCattle_InseminationDateMandate</t>
+  </si>
+  <si>
+    <t>RegisterMilkingorDryCattle_DuplicateTagnumberAllowed</t>
+  </si>
+  <si>
+    <t>RegisterMilkingorDryCattle_DryPeriodDateMandate</t>
+  </si>
+  <si>
+    <t>RegisterMilkingorDryCattle_CalvingAndInseminationDateGap</t>
+  </si>
+  <si>
+    <t>RegisterMilkingorDryCattle_DryPeriodDateCannotBeBeforeCalvingDate</t>
+  </si>
+  <si>
+    <t>ForgotPin_PinLessThanSixDigitsNotAccepted</t>
+  </si>
+  <si>
+    <t>ForgotPin_PinAndConfirmPinMustMatch</t>
+  </si>
+  <si>
+    <t>Your PIN and Re-entered PIN do not match</t>
+  </si>
+  <si>
+    <t>Please create valid PIN of 6 digits</t>
+  </si>
+  <si>
+    <t>PIN entered already exists. Please create a new PIN.</t>
+  </si>
+  <si>
+    <t>ForgotPin_CannotSetOldPin</t>
+  </si>
+  <si>
+    <t>CreateUserdefinedshed_withDuplicateGroupName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> already exists in the Shed.</t>
+  </si>
+  <si>
+    <t>Please enter Group name to continue.</t>
+  </si>
+  <si>
+    <t>CreateUserdefinedshed_withEmptyGroupName</t>
+  </si>
+  <si>
+    <t>CreateUserdefinedshed_withDuplicateShedName</t>
+  </si>
+  <si>
+    <t>Entered Shed Name already exists in your farm.</t>
+  </si>
+  <si>
+    <t>AddCattletoUserdefinedShed_NavigatetoGroupViewWithoutCattleSelection</t>
+  </si>
+  <si>
+    <t>Atleast one cattle needs to be added to the group</t>
+  </si>
+  <si>
+    <t>AddCattletoUserdefinedShed_addAllCattletoShed</t>
+  </si>
+  <si>
+    <t>All cattle in the farm has been added to existing Shed and Groups. Inorder to add cattle, move cattle from existing group/shed to newly created group/shed</t>
+  </si>
+  <si>
+    <t>AddCattletoUserdefinedShed_addAlreadyAddedCattletoShed</t>
+  </si>
+  <si>
+    <t>Cattle has been added to another Group</t>
+  </si>
+  <si>
+    <t>AddCattletoUserdefinedShed_AddCattletoGroupWhenCattleSelectedforMoving</t>
+  </si>
+  <si>
+    <t>Deselect all the selected cattle to add cattle to group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,14 +767,6 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -731,7 +776,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -765,51 +810,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -819,36 +824,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -907,7 +892,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -959,7 +944,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1153,7 +1138,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1161,120 +1146,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33" style="20"/>
-    <col min="10" max="10" width="33" style="20"/>
-    <col min="17" max="17" width="33" style="20"/>
-    <col min="25" max="25" width="33" style="20"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="21" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="S1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="T1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="U1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="V1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="W1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
@@ -1283,25 +1254,25 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1310,50 +1281,48 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -1362,97 +1331,93 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="3"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1460,7 +1425,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -1468,27 +1433,25 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>13</v>
@@ -1496,7 +1459,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1504,7 +1467,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1512,33 +1475,31 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1546,7 +1507,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1554,33 +1515,31 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1588,94 +1547,29 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="Y9" s="20"/>
-    </row>
-    <row r="10" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="Y10" s="20"/>
-    </row>
-    <row r="11" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="Y11" s="20"/>
-    </row>
-    <row r="12" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="Y12" s="20"/>
-    </row>
-    <row r="13" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="Y13" s="20"/>
-    </row>
-    <row r="14" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="Y14" s="20"/>
-    </row>
-    <row r="15" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="Y15" s="20"/>
-    </row>
-    <row r="16" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="Y16" s="20"/>
-    </row>
-    <row r="17" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="Y17" s="20"/>
-    </row>
-    <row r="18" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="Y18" s="20"/>
-    </row>
-    <row r="19" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="Y19" s="20"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1686,86 +1580,302 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1774,772 +1884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N10" sqref="N10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="61.42578125" customWidth="1"/>
-    <col min="26" max="26" width="33.42578125" customWidth="1"/>
-    <col min="27" max="27" width="70" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>6266251</v>
-      </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-    </row>
-    <row r="10" spans="1:30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-    </row>
-    <row r="11" spans="1:30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="3"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" display="123.23@23"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="A1:XFD1048576"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2551,128 +1899,128 @@
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2680,7 +2028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -2702,121 +2050,121 @@
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="D3" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="L3" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2838,62 +2186,62 @@
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2903,11 +2251,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2919,77 +2267,77 @@
     <col min="4" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +2347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -3014,89 +2362,89 @@
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3106,7 +2454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -3123,132 +2471,132 @@
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3258,13 +2606,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3275,122 +2709,122 @@
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>

--- a/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
+++ b/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15585" windowHeight="4065" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15585" windowHeight="4065" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="ForgotPin" sheetId="11" r:id="rId11"/>
     <sheet name="CreateUserdefinedshed" sheetId="13" r:id="rId12"/>
     <sheet name="AddCattletoUserdefinedShed" sheetId="14" r:id="rId13"/>
+    <sheet name="DeleteUserdefinedGroup" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="240">
   <si>
     <t>testcase</t>
   </si>
@@ -727,6 +728,39 @@
   </si>
   <si>
     <t>Deselect all the selected cattle to add cattle to group</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete the Group grp_No from Shed shed_No?</t>
+  </si>
+  <si>
+    <t>Group grp_No is the last group in the Shed shed_No. Deleting this Group grp_No will also delete the Shed shed_No. Do you want to proceed?</t>
+  </si>
+  <si>
+    <t>successMessage</t>
+  </si>
+  <si>
+    <t>DeleteUserdefinedGroup_deleteGrp</t>
+  </si>
+  <si>
+    <t>DeleteUserdefinedGroup_deletelastGrp</t>
+  </si>
+  <si>
+    <t>DeleteUserdefinedGroup_deleteGrpwithCattle</t>
+  </si>
+  <si>
+    <t>Move all cattle out from this group</t>
+  </si>
+  <si>
+    <t>Group - grp_No has been deleted from Shed shed_No.</t>
+  </si>
+  <si>
+    <t>Group grp_No is the last group in the last active Shed shed_No. Deleting this Group grp_No will delete all Sheds and Groups in Housing and will Reset Housing. Do you want to proceed?</t>
+  </si>
+  <si>
+    <t>DeleteUserdefinedGroup_deletelastGrpoflastShed</t>
+  </si>
+  <si>
+    <t>All cattle been moved out from Group grp_No</t>
   </si>
 </sst>
 </file>
@@ -814,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -830,6 +864,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1138,7 +1175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1827,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,6 +1912,78 @@
       </c>
       <c r="B5" t="s">
         <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
+++ b/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15585" windowHeight="4065" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14685" windowHeight="5610" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="CreateUserdefinedshed" sheetId="13" r:id="rId12"/>
     <sheet name="AddCattletoUserdefinedShed" sheetId="14" r:id="rId13"/>
     <sheet name="DeleteUserdefinedGroup" sheetId="15" r:id="rId14"/>
+    <sheet name="DeleteUserdefinedShed" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="242">
   <si>
     <t>testcase</t>
   </si>
@@ -761,6 +762,12 @@
   </si>
   <si>
     <t>All cattle been moved out from Group grp_No</t>
+  </si>
+  <si>
+    <t>All Groups in Shed must be deleted in order to delete the Shed</t>
+  </si>
+  <si>
+    <t>DeleteUserdefinedShed_withoutDeletingNonEmptyGroups</t>
   </si>
 </sst>
 </file>
@@ -848,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -869,6 +876,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,6 +1992,41 @@
       </c>
       <c r="C5" t="s">
         <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
+++ b/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/248d071b55cd37e9/Documents/GitHub/NitaraAndroidFarmerApplication/AndroidAutomation_Farmer/src/main/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_58218C61699BFD82051ED406D30E92ACC872E8BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EA6CA56-A51A-4AF0-9666-3ED674D84C99}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16230" windowHeight="6180" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
@@ -19,26 +25,16 @@
     <sheet name="PD" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="237">
   <si>
     <t>testcase</t>
   </si>
@@ -674,12 +670,87 @@
   </si>
   <si>
     <t>15 Nov 2022</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullTagNumberAccceptsSpecialCharacters</t>
+  </si>
+  <si>
+    <t>123@#dff</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullSameEarTag</t>
+  </si>
+  <si>
+    <t>MilkingCt1</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullCoopTagNumberAcceptsNonNumericValue</t>
+  </si>
+  <si>
+    <t>acbdwsdfifjd</t>
+  </si>
+  <si>
+    <t>JUNE</t>
+  </si>
+  <si>
+    <t>Pashu Aadhar should only be Numeric.Please check and re-enter Pashu Aadhar.</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullPashuAadharLesserThan12Digits</t>
+  </si>
+  <si>
+    <t>JULY</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullPashuAadharMoreThan12Digits</t>
+  </si>
+  <si>
+    <t>AUGUST</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullCattleTagMandatory</t>
+  </si>
+  <si>
+    <t>SEPTEMBER</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullYearOfBirthMandatory</t>
+  </si>
+  <si>
+    <t>OCTOBER</t>
+  </si>
+  <si>
+    <t>The field Year of Birth cannot be empty</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullMinimumWeight</t>
+  </si>
+  <si>
+    <t>Weight cannot be less than 15 kg. Please check weight and re-enter weight again.</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullMaximumWeight</t>
+  </si>
+  <si>
+    <t>DECEMBER</t>
+  </si>
+  <si>
+    <t>Weight cannot be more than 2000 kg. Please check weight and re-enter weight again.</t>
+  </si>
+  <si>
+    <t>RegisterCattle_BullUnder6Months</t>
+  </si>
+  <si>
+    <t>Animal cannot be under 6 months old to be a Bull. Please register animal as Calf.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -809,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -846,6 +917,8 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1160,522 +1233,915 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33" style="20"/>
-    <col min="10" max="10" width="33" style="20"/>
-    <col min="17" max="17" width="33" style="20"/>
-    <col min="25" max="25" width="33" style="20"/>
+    <col min="1" max="3" width="36.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33" style="20"/>
+    <col min="12" max="12" width="33" style="20"/>
+    <col min="19" max="19" width="33" style="20"/>
+    <col min="27" max="27" width="73.109375" style="20" customWidth="1"/>
+    <col min="29" max="29" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="X1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="Y1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA1" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z2" s="2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="3"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z3" s="2"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="S5" s="2"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="S7" s="2"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="N8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2" t="s">
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="U8" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="V8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="W8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="X8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="Y8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="Z8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="Y9" s="20"/>
-    </row>
-    <row r="10" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="Y10" s="20"/>
-    </row>
-    <row r="11" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="Y11" s="20"/>
-    </row>
-    <row r="12" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="Y12" s="20"/>
-    </row>
-    <row r="13" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="Y13" s="20"/>
-    </row>
-    <row r="14" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="Y14" s="20"/>
-    </row>
-    <row r="15" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="Y15" s="20"/>
-    </row>
-    <row r="16" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="Y16" s="20"/>
-    </row>
-    <row r="17" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="Y17" s="20"/>
-    </row>
-    <row r="18" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="Y18" s="20"/>
-    </row>
-    <row r="19" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="Y19" s="20"/>
+      <c r="AA8"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
+        <v>150</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>201</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>202</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3">
+        <v>15421542</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3">
+        <v>15421542154215</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>5</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1685,20 +2151,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +2175,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>95</v>
       </c>
@@ -1720,7 +2186,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>96</v>
       </c>
@@ -1731,7 +2197,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>97</v>
       </c>
@@ -1740,7 +2206,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>98</v>
       </c>
@@ -1749,7 +2215,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>155</v>
       </c>
@@ -1758,7 +2224,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>159</v>
       </c>
@@ -1773,22 +2239,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.42578125" customWidth="1"/>
-    <col min="26" max="26" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="61.44140625" customWidth="1"/>
+    <col min="26" max="26" width="33.44140625" customWidth="1"/>
     <col min="27" max="27" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1871,7 +2337,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>201</v>
       </c>
@@ -1932,7 +2398,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>193</v>
       </c>
@@ -1993,7 +2459,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>202</v>
       </c>
@@ -2054,7 +2520,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>194</v>
       </c>
@@ -2115,7 +2581,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>195</v>
       </c>
@@ -2176,7 +2642,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>206</v>
       </c>
@@ -2235,7 +2701,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>196</v>
       </c>
@@ -2292,7 +2758,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>197</v>
       </c>
@@ -2352,7 +2818,7 @@
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
     </row>
-    <row r="10" spans="1:30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>198</v>
       </c>
@@ -2412,7 +2878,7 @@
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
     </row>
-    <row r="11" spans="1:30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>199</v>
       </c>
@@ -2469,7 +2935,7 @@
       <c r="Z11" s="12"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>210</v>
       </c>
@@ -2528,30 +2994,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" display="123.23@23"/>
+    <hyperlink ref="Y2" r:id="rId1" display="123.23@23" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2571,7 +3037,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>166</v>
       </c>
@@ -2587,7 +3053,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>166</v>
       </c>
@@ -2605,7 +3071,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>174</v>
       </c>
@@ -2621,7 +3087,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>172</v>
       </c>
@@ -2639,7 +3105,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>177</v>
       </c>
@@ -2657,7 +3123,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>176</v>
       </c>
@@ -2681,28 +3147,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2743,7 +3209,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
@@ -2781,7 +3247,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>122</v>
       </c>
@@ -2825,20 +3291,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2852,7 +3318,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -2863,7 +3329,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -2874,7 +3340,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -2885,7 +3351,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -2904,22 +3370,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2936,7 +3402,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -2950,7 +3416,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -2964,7 +3430,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -2978,7 +3444,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -3000,21 +3466,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3028,7 +3494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>87</v>
       </c>
@@ -3043,7 +3509,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>88</v>
       </c>
@@ -3057,7 +3523,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>86</v>
       </c>
@@ -3071,7 +3537,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -3085,7 +3551,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -3107,23 +3573,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3143,7 +3609,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>94</v>
       </c>
@@ -3163,7 +3629,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>93</v>
       </c>
@@ -3181,7 +3647,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>92</v>
       </c>
@@ -3197,7 +3663,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>91</v>
       </c>
@@ -3215,7 +3681,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>154</v>
       </c>
@@ -3233,7 +3699,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>158</v>
       </c>
@@ -3259,23 +3725,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3295,7 +3761,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>152</v>
       </c>
@@ -3315,7 +3781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>99</v>
       </c>
@@ -3333,7 +3799,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>99</v>
       </c>
@@ -3349,7 +3815,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>100</v>
       </c>
@@ -3365,7 +3831,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>101</v>
       </c>
@@ -3379,7 +3845,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>102</v>
       </c>

--- a/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
+++ b/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15585" windowHeight="4065" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16230" windowHeight="6180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
-    <sheet name="Weight" sheetId="9" r:id="rId2"/>
-    <sheet name="Treatment" sheetId="6" r:id="rId3"/>
-    <sheet name="Deworming" sheetId="7" r:id="rId4"/>
-    <sheet name="Vaccination" sheetId="8" r:id="rId5"/>
-    <sheet name="Heat" sheetId="2" r:id="rId6"/>
-    <sheet name="Insemination" sheetId="3" r:id="rId7"/>
-    <sheet name="PD" sheetId="4" r:id="rId8"/>
+    <sheet name="RegisterHeifer" sheetId="10" r:id="rId2"/>
+    <sheet name="Weight" sheetId="9" r:id="rId3"/>
+    <sheet name="Treatment" sheetId="6" r:id="rId4"/>
+    <sheet name="Deworming" sheetId="7" r:id="rId5"/>
+    <sheet name="Vaccination" sheetId="8" r:id="rId6"/>
+    <sheet name="Heat" sheetId="2" r:id="rId7"/>
+    <sheet name="Insemination" sheetId="3" r:id="rId8"/>
     <sheet name="Calving" sheetId="5" r:id="rId9"/>
-    <sheet name="RegisterMilkingorDryCattle" sheetId="10" r:id="rId10"/>
-    <sheet name="ForgotPin" sheetId="11" r:id="rId11"/>
-    <sheet name="CreateUserdefinedshed" sheetId="13" r:id="rId12"/>
-    <sheet name="AddCattletoUserdefinedShed" sheetId="14" r:id="rId13"/>
-    <sheet name="DeleteUserdefinedGroup" sheetId="15" r:id="rId14"/>
+    <sheet name="PD" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:K11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="212">
   <si>
     <t>testcase</t>
   </si>
@@ -94,9 +91,6 @@
     <t>isCattleInseminated</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>2456</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>Rathi</t>
   </si>
   <si>
@@ -202,9 +193,6 @@
     <t>motheredBy</t>
   </si>
   <si>
-    <t>RegisterCattle_Heifer</t>
-  </si>
-  <si>
     <t>Hariana</t>
   </si>
   <si>
@@ -559,43 +547,106 @@
     <t>Direct Weight</t>
   </si>
   <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>11 Dec 2021</t>
+  </si>
+  <si>
+    <t>Weight_ViewData</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>Weight_ViewData1</t>
+  </si>
+  <si>
+    <t>FMD</t>
+  </si>
+  <si>
+    <t>Weight_DeleteData</t>
+  </si>
+  <si>
+    <t>Weight_EditData</t>
+  </si>
+  <si>
+    <t>tagNumber</t>
+  </si>
+  <si>
+    <t>123.23@@23</t>
+  </si>
+  <si>
+    <t>1234567891234</t>
+  </si>
+  <si>
+    <t>cooptagNumber</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
     <t>RegisterCattle_HeiferCattle</t>
   </si>
   <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>11 Dec 2021</t>
-  </si>
-  <si>
-    <t>Weight_ViewData</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>Weight_ViewData1</t>
-  </si>
-  <si>
-    <t>FMD</t>
-  </si>
-  <si>
-    <t>Weight_DeleteData</t>
-  </si>
-  <si>
-    <t>Weight_EditData</t>
-  </si>
-  <si>
-    <t>tagNumber</t>
+    <t>1234567891..</t>
+  </si>
+  <si>
+    <t>FEBRUARY</t>
+  </si>
+  <si>
+    <t>16 Nov 2021</t>
+  </si>
+  <si>
+    <t>3457</t>
+  </si>
+  <si>
+    <t>MARCH</t>
+  </si>
+  <si>
+    <t>17 Nov 2021</t>
+  </si>
+  <si>
+    <t>3458</t>
+  </si>
+  <si>
+    <t>1 May 2022</t>
+  </si>
+  <si>
+    <t>15 April 2022</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_CheckSameTag</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_PALess</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_PAGreat</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_BirthYear</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_InseminationDate</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_InseminationDateCheck</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_HeatEntry</t>
   </si>
   <si>
     <t>warningMessage</t>
   </si>
   <si>
-    <t>Cow@123</t>
+    <t>RegisterHeifer_TagSpecialCharacter</t>
+  </si>
+  <si>
+    <t>RegisterHeifer_CoopNonNumeric</t>
   </si>
   <si>
     <t>Name/Number should be only Alphabets or Numbers.</t>
@@ -604,170 +655,32 @@
     <t>Pashu Aadhar should be only Numeric.Please check and re-enter Pashu Aadhar.</t>
   </si>
   <si>
-    <t>cattle</t>
-  </si>
-  <si>
-    <t>coopTagNumber</t>
-  </si>
-  <si>
-    <t>123456789abc</t>
-  </si>
-  <si>
     <t>Pashu Aadhar is not valid. Please check and re-enter valid 12-digit Pashu Aadhar Number.</t>
   </si>
   <si>
+    <t>RegisterHeifer_TagMandate</t>
+  </si>
+  <si>
     <t>Cattle Name/Number must be between 1-10 characters.</t>
   </si>
   <si>
-    <t>The field Calving Date cannot be empty</t>
-  </si>
-  <si>
-    <t>The field Insemination Date cannot be empty</t>
+    <t>The field Year of  Birth cannot be empty</t>
   </si>
   <si>
     <t>Cattle with entered Name/Number exists. Please enter valid Name/Number.</t>
   </si>
   <si>
-    <t>The field Dry period Date cannot be empty</t>
-  </si>
-  <si>
-    <t>Insemination Date cannot be within 15 days after last Calving Date</t>
-  </si>
-  <si>
-    <t>Dry Period Date cannot be before Last Calving Date.</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_TagnumberAcceptsSpecialChars</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_CoopTagnumberAcceptsNonnumericChars</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_CoopTagnumberAcceptsLessDigits</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_CoopTagnumberAcceptsMoreDigits</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_TagnumberMandate</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_CalvingDateMandate</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_InseminationDateMandate</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_DuplicateTagnumberAllowed</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_DryPeriodDateMandate</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_CalvingAndInseminationDateGap</t>
-  </si>
-  <si>
-    <t>RegisterMilkingorDryCattle_DryPeriodDateCannotBeBeforeCalvingDate</t>
-  </si>
-  <si>
-    <t>ForgotPin_PinLessThanSixDigitsNotAccepted</t>
-  </si>
-  <si>
-    <t>ForgotPin_PinAndConfirmPinMustMatch</t>
-  </si>
-  <si>
-    <t>Your PIN and Re-entered PIN do not match</t>
-  </si>
-  <si>
-    <t>Please create valid PIN of 6 digits</t>
-  </si>
-  <si>
-    <t>PIN entered already exists. Please create a new PIN.</t>
-  </si>
-  <si>
-    <t>ForgotPin_CannotSetOldPin</t>
-  </si>
-  <si>
-    <t>CreateUserdefinedshed_withDuplicateGroupName</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> already exists in the Shed.</t>
-  </si>
-  <si>
-    <t>Please enter Group name to continue.</t>
-  </si>
-  <si>
-    <t>CreateUserdefinedshed_withEmptyGroupName</t>
-  </si>
-  <si>
-    <t>CreateUserdefinedshed_withDuplicateShedName</t>
-  </si>
-  <si>
-    <t>Entered Shed Name already exists in your farm.</t>
-  </si>
-  <si>
-    <t>AddCattletoUserdefinedShed_NavigatetoGroupViewWithoutCattleSelection</t>
-  </si>
-  <si>
-    <t>Atleast one cattle needs to be added to the group</t>
-  </si>
-  <si>
-    <t>AddCattletoUserdefinedShed_addAllCattletoShed</t>
-  </si>
-  <si>
-    <t>All cattle in the farm has been added to existing Shed and Groups. Inorder to add cattle, move cattle from existing group/shed to newly created group/shed</t>
-  </si>
-  <si>
-    <t>AddCattletoUserdefinedShed_addAlreadyAddedCattletoShed</t>
-  </si>
-  <si>
-    <t>Cattle has been added to another Group</t>
-  </si>
-  <si>
-    <t>AddCattletoUserdefinedShed_AddCattletoGroupWhenCattleSelectedforMoving</t>
-  </si>
-  <si>
-    <t>Deselect all the selected cattle to add cattle to group</t>
-  </si>
-  <si>
-    <t>Are you sure you want to delete the Group grp_No from Shed shed_No?</t>
-  </si>
-  <si>
-    <t>Group grp_No is the last group in the Shed shed_No. Deleting this Group grp_No will also delete the Shed shed_No. Do you want to proceed?</t>
-  </si>
-  <si>
-    <t>successMessage</t>
-  </si>
-  <si>
-    <t>DeleteUserdefinedGroup_deleteGrp</t>
-  </si>
-  <si>
-    <t>DeleteUserdefinedGroup_deletelastGrp</t>
-  </si>
-  <si>
-    <t>DeleteUserdefinedGroup_deleteGrpwithCattle</t>
-  </si>
-  <si>
-    <t>Move all cattle out from this group</t>
-  </si>
-  <si>
-    <t>Group - grp_No has been deleted from Shed shed_No.</t>
-  </si>
-  <si>
-    <t>Group grp_No is the last group in the last active Shed shed_No. Deleting this Group grp_No will delete all Sheds and Groups in Housing and will Reset Housing. Do you want to proceed?</t>
-  </si>
-  <si>
-    <t>DeleteUserdefinedGroup_deletelastGrpoflastShed</t>
-  </si>
-  <si>
-    <t>All cattle been moved out from Group grp_No</t>
+    <t>RegisterHeifer_VerifyBreedingActivity</t>
+  </si>
+  <si>
+    <t>15 Nov 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,6 +714,14 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -810,7 +731,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -844,11 +765,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -858,19 +819,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -929,7 +907,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -981,7 +959,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1175,7 +1153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1183,106 +1161,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33" style="20"/>
+    <col min="10" max="10" width="33" style="20"/>
+    <col min="17" max="17" width="33" style="20"/>
+    <col min="25" max="25" width="33" style="20"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
@@ -1291,25 +1283,25 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1318,48 +1310,50 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -1368,93 +1362,97 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="V4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1462,7 +1460,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="2"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -1470,25 +1468,27 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>13</v>
@@ -1496,7 +1496,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1504,7 +1504,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="2"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1512,31 +1512,33 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1544,7 +1546,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="2"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1552,31 +1554,33 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1584,29 +1588,94 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="W8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="Y9" s="20"/>
+    </row>
+    <row r="10" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="Y10" s="20"/>
+    </row>
+    <row r="11" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="Y11" s="20"/>
+    </row>
+    <row r="12" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="Y12" s="20"/>
+    </row>
+    <row r="13" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="Y13" s="20"/>
+    </row>
+    <row r="14" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="Y14" s="20"/>
+    </row>
+    <row r="15" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="Y15" s="20"/>
+    </row>
+    <row r="16" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="Y16" s="20"/>
+    </row>
+    <row r="17" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="Y17" s="20"/>
+    </row>
+    <row r="18" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="Y18" s="20"/>
+    </row>
+    <row r="19" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="Y19" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1617,374 +1686,86 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>183</v>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" t="s">
-        <v>236</v>
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" t="s">
-        <v>239</v>
-      </c>
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1993,10 +1774,772 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.42578125" customWidth="1"/>
+    <col min="26" max="26" width="33.42578125" customWidth="1"/>
+    <col min="27" max="27" width="70" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2">
+        <v>6266251</v>
+      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+    </row>
+    <row r="10" spans="1:30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+    </row>
+    <row r="11" spans="1:30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Y2" r:id="rId1" display="123.23@23"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,128 +2551,128 @@
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2137,7 +2680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -2159,121 +2702,121 @@
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="B2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="D2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
         <v>123</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2281,7 +2824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2295,62 +2838,62 @@
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>134</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2360,11 +2903,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2376,77 +2919,77 @@
     <col min="4" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>143</v>
       </c>
-      <c r="B2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2456,7 +2999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -2471,89 +3014,89 @@
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2563,7 +3106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -2580,132 +3123,132 @@
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2715,99 +3258,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2818,122 +3275,122 @@
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>

--- a/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
+++ b/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14685" windowHeight="5610" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14685" windowHeight="5610" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="AddCattletoUserdefinedShed" sheetId="14" r:id="rId13"/>
     <sheet name="DeleteUserdefinedGroup" sheetId="15" r:id="rId14"/>
     <sheet name="DeleteUserdefinedShed" sheetId="16" r:id="rId15"/>
+    <sheet name="Movecattle" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="244">
   <si>
     <t>testcase</t>
   </si>
@@ -768,6 +769,12 @@
   </si>
   <si>
     <t>DeleteUserdefinedShed_withoutDeletingNonEmptyGroups</t>
+  </si>
+  <si>
+    <t>Movecattle_verifyMoveBtnIsDisabledWhenNocattleIsSelected</t>
+  </si>
+  <si>
+    <t>Select atleast one cattle to change group or shed</t>
   </si>
 </sst>
 </file>
@@ -2003,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,6 +2034,41 @@
       </c>
       <c r="B2" t="s">
         <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
+++ b/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14685" windowHeight="5610" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14685" windowHeight="5610" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="DeleteUserdefinedGroup" sheetId="15" r:id="rId14"/>
     <sheet name="DeleteUserdefinedShed" sheetId="16" r:id="rId15"/>
     <sheet name="Movecattle" sheetId="17" r:id="rId16"/>
+    <sheet name="SignUp" sheetId="18" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="265">
   <si>
     <t>testcase</t>
   </si>
@@ -775,6 +776,69 @@
   </si>
   <si>
     <t>Select atleast one cattle to change group or shed</t>
+  </si>
+  <si>
+    <t>SignUp_phoneNumberLessThan10Digits</t>
+  </si>
+  <si>
+    <t>Please enter valid 10-digit mobile number</t>
+  </si>
+  <si>
+    <t>SignUp_OTPLessThan4Digits</t>
+  </si>
+  <si>
+    <t>Please enter OTP to continue.</t>
+  </si>
+  <si>
+    <t>otp</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>SignUp_incorrectOTP</t>
+  </si>
+  <si>
+    <t>The OTP you entered is incorrect. Please check &amp; re-enter the correct OTP.</t>
+  </si>
+  <si>
+    <t>SignUp_enterPINlessThan6Digits</t>
+  </si>
+  <si>
+    <t>SignUp_PINandConfirmPINdoesntMatch</t>
+  </si>
+  <si>
+    <t>SignUp_NoFirstNameEntered</t>
+  </si>
+  <si>
+    <t>The field First Name cannot be empty.</t>
+  </si>
+  <si>
+    <t>SignUp_NoLastNameEntered</t>
+  </si>
+  <si>
+    <t>The field Last Name cannot be empty.</t>
+  </si>
+  <si>
+    <t>SignUp_FirstNameLessThan2Digits</t>
+  </si>
+  <si>
+    <t>First Name needs to be between 1-21 characters</t>
+  </si>
+  <si>
+    <t>SignUp_LastNameLessThan2Digits</t>
+  </si>
+  <si>
+    <t>Last Name needs to be between 1-21 characters</t>
+  </si>
+  <si>
+    <t>SignUp_MiddleNameLessThan2Digits</t>
+  </si>
+  <si>
+    <t>Middle Name needs to be between 1-21 characters</t>
   </si>
 </sst>
 </file>
@@ -824,7 +888,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -858,11 +922,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -884,6 +961,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2045,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,6 +2147,122 @@
       </c>
       <c r="B2" t="s">
         <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
+++ b/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14685" windowHeight="5610" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14685" windowHeight="5610" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="274">
   <si>
     <t>testcase</t>
   </si>
@@ -839,6 +839,33 @@
   </si>
   <si>
     <t>Middle Name needs to be between 1-21 characters</t>
+  </si>
+  <si>
+    <t>PD_NoInseminationData</t>
+  </si>
+  <si>
+    <t>PD data cannot be entered as no previous insemination found in current lactation.</t>
+  </si>
+  <si>
+    <t>PD_PDdateWithin21DaysOfInseminationdate</t>
+  </si>
+  <si>
+    <t>PD Date cannot be within 21 days of last Insemination Date.</t>
+  </si>
+  <si>
+    <t>PD_PDdateWithin21DaysOfPDdate</t>
+  </si>
+  <si>
+    <t>PD Date cannot be within 21 days of Last Insemination Date.</t>
+  </si>
+  <si>
+    <t>PD_updatePDdateWithin21DaysOfInseminationdate</t>
+  </si>
+  <si>
+    <t>PD Date cannot be within 21 days of Last PD Date.</t>
+  </si>
+  <si>
+    <t>PD_updatePDdateWithin21DaysOfPDdate</t>
   </si>
 </sst>
 </file>
@@ -888,7 +915,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -919,17 +946,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -939,13 +955,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -961,7 +976,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,7 +1283,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1699,7 +1714,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1734,7 +1749,7 @@
       <c r="C1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1773,7 +1788,7 @@
       <c r="C4" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1870,8 +1885,8 @@
       <c r="B1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1987,7 +2002,7 @@
       <c r="A3" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2023,7 +2038,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="83.85546875" style="13" customWidth="1"/>
     <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2031,7 +2046,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2042,7 +2057,7 @@
       <c r="A2" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>229</v>
       </c>
       <c r="C2" t="s">
@@ -2053,7 +2068,7 @@
       <c r="A3" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>230</v>
       </c>
       <c r="C3" t="s">
@@ -2064,7 +2079,7 @@
       <c r="A4" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2072,7 +2087,7 @@
       <c r="A5" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>237</v>
       </c>
       <c r="C5" t="s">
@@ -2102,7 +2117,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2137,7 +2152,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2158,7 +2173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2172,10 +2187,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2442,40 +2457,40 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2483,7 +2498,7 @@
       <c r="A2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C2" t="s">
@@ -2498,7 +2513,7 @@
       <c r="G2" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>122</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -2507,10 +2522,10 @@
       <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>123</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -2521,7 +2536,7 @@
       <c r="A3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
@@ -2536,7 +2551,7 @@
       <c r="G3" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>127</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2545,10 +2560,10 @@
       <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>123</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -2578,13 +2593,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2595,7 +2610,7 @@
       <c r="B2" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2606,7 +2621,7 @@
       <c r="B3" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2617,7 +2632,7 @@
       <c r="B4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2628,7 +2643,7 @@
       <c r="B5" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2659,16 +2674,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2679,10 +2694,10 @@
       <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2693,10 +2708,10 @@
       <c r="B3" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2707,10 +2722,10 @@
       <c r="B4" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2721,10 +2736,10 @@
       <c r="B5" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2996,19 +3011,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3018,8 +3034,11 @@
       <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>98</v>
       </c>
@@ -3029,8 +3048,9 @@
       <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>99</v>
       </c>
@@ -3040,8 +3060,9 @@
       <c r="C3" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
@@ -3049,33 +3070,97 @@
         <v>19</v>
       </c>
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>272</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3172,7 +3257,7 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3188,7 +3273,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3202,7 +3287,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B7" s="3" t="s">

--- a/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
+++ b/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14685" windowHeight="5610" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14685" windowHeight="5610" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="DeleteUserdefinedShed" sheetId="16" r:id="rId15"/>
     <sheet name="Movecattle" sheetId="17" r:id="rId16"/>
     <sheet name="SignUp" sheetId="18" r:id="rId17"/>
+    <sheet name="UpcomingActivity" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="289">
   <si>
     <t>testcase</t>
   </si>
@@ -271,9 +272,6 @@
     <t>2345</t>
   </si>
   <si>
-    <t>NATURAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Natural Insemination </t>
   </si>
   <si>
@@ -319,9 +317,6 @@
     <t>Heat_AddData</t>
   </si>
   <si>
-    <t>Heat_AddData4</t>
-  </si>
-  <si>
     <t>Heat_DeleteData</t>
   </si>
   <si>
@@ -334,18 +329,12 @@
     <t>Insemination_ForGivenDate</t>
   </si>
   <si>
-    <t>Insemination_ValidData1</t>
-  </si>
-  <si>
     <t>Insemination_ValidData</t>
   </si>
   <si>
     <t>PD_ValidData</t>
   </si>
   <si>
-    <t>PD_ValidData1</t>
-  </si>
-  <si>
     <t>PD_ForGivenDate</t>
   </si>
   <si>
@@ -866,6 +855,63 @@
   </si>
   <si>
     <t>PD_updatePDdateWithin21DaysOfPDdate</t>
+  </si>
+  <si>
+    <t>Calving_AddData1</t>
+  </si>
+  <si>
+    <t>30 Jun 2022</t>
+  </si>
+  <si>
+    <t>Insemination_DuringReg</t>
+  </si>
+  <si>
+    <t>01 Apr 2021</t>
+  </si>
+  <si>
+    <t>PD_DuringReg</t>
+  </si>
+  <si>
+    <t>30 Aug 2021</t>
+  </si>
+  <si>
+    <t>UpcomingActivity_InseminationIsAdded</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>Upcoming PD</t>
+  </si>
+  <si>
+    <t>31 May 2021</t>
+  </si>
+  <si>
+    <t>UpcomingActivity_PDIsAdded</t>
+  </si>
+  <si>
+    <t>Upcoming Calving</t>
+  </si>
+  <si>
+    <t>05 Jul 2022</t>
+  </si>
+  <si>
+    <t>UpcomingActivity_DryPeriodIsAdded</t>
+  </si>
+  <si>
+    <t>Upcoming Heat</t>
+  </si>
+  <si>
+    <t>UpcomingActivity_HeatIsAdded</t>
+  </si>
+  <si>
+    <t>21 Jul 2022</t>
+  </si>
+  <si>
+    <t>UpcomingActivity_CalvingIsAdded</t>
+  </si>
+  <si>
+    <t>22 Jul 2022</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1329,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1408,7 +1454,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>14</v>
@@ -1429,7 +1475,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -1479,7 +1525,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1541,7 +1587,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -1663,7 +1709,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1695,7 +1741,7 @@
         <v>18</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>38</v>
@@ -1728,7 +1774,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,117 +1790,117 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1883,33 +1929,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1936,31 +1982,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1987,39 +2033,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2047,51 +2093,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
         <v>232</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2118,15 +2164,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2153,15 +2199,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2173,9 +2219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2188,96 +2232,237 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2307,123 +2492,123 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2458,63 +2643,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>19</v>
@@ -2523,36 +2708,36 @@
         <v>19</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>19</v>
@@ -2561,13 +2746,13 @@
         <v>19</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2594,57 +2779,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2675,72 +2860,72 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +2940,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,7 +2966,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
@@ -2796,7 +2981,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
@@ -2810,7 +2995,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -2824,7 +3009,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>25</v>
@@ -2833,12 +3018,12 @@
         <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -2859,10 +3044,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C23"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2896,10 +3081,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>72</v>
@@ -2911,12 +3096,12 @@
         <v>73</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
@@ -2934,7 +3119,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -2943,14 +3128,14 @@
         <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -2968,7 +3153,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -2977,30 +3162,46 @@
         <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3011,20 +3212,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
     <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3032,15 +3234,24 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -3049,10 +3260,13 @@
         <v>73</v>
       </c>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
@@ -3061,105 +3275,159 @@
         <v>73</v>
       </c>
       <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3169,9 +3437,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3187,78 +3457,80 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>103</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>38</v>
@@ -3267,40 +3539,56 @@
         <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
